--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2077781.462686565</v>
+        <v>-2080364.494756293</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>177.606538748302</v>
+        <v>148.6151831671109</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.842886239454</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.54735467376814</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>132.4079811337029</v>
       </c>
       <c r="E5" t="n">
-        <v>121.4922708414253</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>190.0182967731494</v>
       </c>
       <c r="U7" t="n">
-        <v>64.2908608105534</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>150.1779751172642</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>206.7521768102504</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.06669640615353</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576172</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>121.867404271415</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>150.3341561773489</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.787132650397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188991</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712655</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.0656089242822</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428195</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>70.81964134445116</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.019807611472572</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>48.85497112745745</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149752</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316658</v>
+        <v>99.99172839928842</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796077</v>
       </c>
       <c r="F28" t="n">
-        <v>44.76793778823568</v>
+        <v>136.6275814559698</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253068</v>
+        <v>156.7306717253074</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792618</v>
+        <v>131.5012462792624</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160345</v>
+        <v>72.47236975160402</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315961</v>
+        <v>57.58178014316016</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346825</v>
+        <v>172.2328194346831</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603262</v>
+        <v>208.6119837603268</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222821</v>
+        <v>277.3910078222826</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568659</v>
+        <v>243.3441767568665</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696289</v>
+        <v>277.7295317696295</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220751</v>
+        <v>216.9161888220757</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851327</v>
+        <v>209.7911867851333</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530893</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,7 +3436,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.109083729354</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.146566788942</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D2" t="n">
-        <v>791.8808681821919</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839476</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839476</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.109083729354</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927771</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064463</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080113</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986287</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>78.33486996962286</v>
@@ -4492,46 +4492,46 @@
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068851</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596437</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877108</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>410.0175235133544</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>410.0175235133544</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>120.6003534763938</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>120.6003534763938</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>2120.647175555803</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264416</v>
+        <v>1751.684658615392</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.873537264416</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>537.2634481367795</v>
       </c>
       <c r="U7" t="n">
-        <v>766.1162851307095</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V7" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W7" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X7" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>954.6078386576642</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>568.8195860594199</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>754.2215017008103</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>532.4548862703364</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U10" t="n">
-        <v>532.4548862703364</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V10" t="n">
-        <v>532.4548862703364</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X10" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488564</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429801</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580257</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603199</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603199</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397312</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360351</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462334</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318804</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400714</v>
+        <v>560.7825789706079</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>391.8463960427009</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.8463580632</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>963.223622944378</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>742.4310438008476</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400718</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121649</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121649</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121649</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121649</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270448</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
         <v>1977.461080510509</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400714</v>
+        <v>956.9553291057246</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121646</v>
+        <v>788.0191461778177</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121646</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121646</v>
+        <v>489.9894131830888</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121646</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270446</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703112</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C25" t="n">
-        <v>513.853600740071</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D25" t="n">
-        <v>513.853600740071</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="E25" t="n">
-        <v>513.853600740071</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421607</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046117</v>
+        <v>836.2046364732646</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382827</v>
+        <v>735.2028906153973</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382827</v>
+        <v>735.2028906153973</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382827</v>
+        <v>596.1720864945814</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582467</v>
+        <v>458.1644284582484</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347044</v>
+        <v>299.8506186347056</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384804</v>
+        <v>167.021076938481</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795876</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064192</v>
+        <v>453.153007806418</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836518</v>
+        <v>852.2571338836501</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.08777207728</v>
+        <v>1709.087772077277</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687557</v>
+        <v>2087.322584687554</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162408</v>
+        <v>2388.703572162404</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.6073387906</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.44392450458</v>
+        <v>2458.443924504575</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621062</v>
+        <v>2284.471379621057</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105581</v>
+        <v>2073.752204105575</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911357</v>
+        <v>1793.559266911351</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167048</v>
+        <v>1547.757068167041</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591665</v>
+        <v>1267.222187591658</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155226</v>
+        <v>1048.114926155218</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732736</v>
+        <v>836.2046364732646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6634,37 +6634,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7084,46 +7084,46 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,13 +7570,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.6313999077516</v>
+        <v>237.6227554889427</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783266</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>45.37941682721288</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>67.07129414993936</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.45968844823079</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.4596884482318</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194194</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>154.890014044586</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350966</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>116.6691671648114</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>171.0385136149758</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.46162613237791</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512503</v>
+        <v>139.8220064512509</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796071</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>91.85964366773347</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.519424586149398e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085835.225316874</v>
+        <v>1085835.225316873</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374986</v>
+        <v>65808.19547374985</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900061</v>
@@ -26332,10 +26332,10 @@
         <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>81217.80383555165</v>
+        <v>81217.8038355516</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642836</v>
@@ -26344,13 +26344,13 @@
         <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642839</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.249151275732916e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.9756508466</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.9447400621</v>
+        <v>12392.9447400626</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569683</v>
+        <v>7034.773253569147</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006212</v>
+        <v>12392.94474006264</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445312</v>
+        <v>18330.12873445292</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.4992699732</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997319</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
+        <v>23427.49926997312</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23427.49926997312</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23427.49926997312</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997313</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997313</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
+        <v>-119426.5076790175</v>
+      </c>
+      <c r="D6" t="n">
         <v>-119426.5076790176</v>
       </c>
-      <c r="D6" t="n">
-        <v>-119426.5076790174</v>
-      </c>
       <c r="E6" t="n">
-        <v>-361256.9716691412</v>
+        <v>-361291.7095945775</v>
       </c>
       <c r="F6" t="n">
-        <v>-35844.50986178617</v>
+        <v>-35879.24778722181</v>
       </c>
       <c r="G6" t="n">
-        <v>-35844.50986178617</v>
+        <v>-35879.24778722187</v>
       </c>
       <c r="H6" t="n">
-        <v>-35844.50986178619</v>
+        <v>-35879.24778722189</v>
       </c>
       <c r="I6" t="n">
-        <v>-35844.50986178618</v>
+        <v>-35879.24778722189</v>
       </c>
       <c r="J6" t="n">
-        <v>-263540.0883144736</v>
+        <v>-263562.2476432448</v>
       </c>
       <c r="K6" t="n">
-        <v>-56880.38287752232</v>
+        <v>-56880.3828775228</v>
       </c>
       <c r="L6" t="n">
-        <v>-44487.43813746019</v>
+        <v>-44487.43813746015</v>
       </c>
       <c r="M6" t="n">
-        <v>-129542.4660729719</v>
+        <v>-129542.4660729721</v>
       </c>
       <c r="N6" t="n">
-        <v>-44487.43813746015</v>
+        <v>-44487.43813746014</v>
       </c>
       <c r="O6" t="n">
-        <v>-51522.21139102981</v>
+        <v>-51522.21139102928</v>
       </c>
       <c r="P6" t="n">
-        <v>-56880.38287752226</v>
+        <v>-56880.38287752279</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26920,19 +26920,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.811439094666145e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961433</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507763</v>
+        <v>15.49118092507826</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962104</v>
+        <v>8.793466566961433</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507765</v>
+        <v>15.49118092507829</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.811439094666145e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961433</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507763</v>
+        <v>15.49118092507826</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>222.2750604869801</v>
       </c>
       <c r="E5" t="n">
-        <v>260.4380992308365</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>29.53065250301984</v>
       </c>
       <c r="U7" t="n">
-        <v>221.9209773950595</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>256.6980706244472</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>142.4887919071626</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>113.7023289252884</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.157194799753628e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962094</v>
+        <v>8.793466566961497</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>469.5567819573404</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010425</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991545</v>
+        <v>89.83994982991491</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765971</v>
+        <v>273.1260549765965</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860935</v>
+        <v>403.135480886093</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680072</v>
+        <v>435.0658935680067</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568695</v>
+        <v>430.4195995568689</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730075</v>
+        <v>382.055366273007</v>
       </c>
       <c r="P28" t="n">
-        <v>304.425239873587</v>
+        <v>304.4252398735865</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668604</v>
+        <v>129.1957238668599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37467,22 +37467,22 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
